--- a/docs/mcode-r4/onco-core-CancerStageCategory.xlsx
+++ b/docs/mcode-r4/onco-core-CancerStageCategory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="422">
   <si>
     <t>Path</t>
   </si>
@@ -358,7 +358,7 @@
 </t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -412,14 +412,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event</t>
+  </si>
+  <si>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -441,11 +441,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
 </t>
   </si>
   <si>
-    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+    <t>The larger procedure that this particular observation is a component or step</t>
+  </si>
+  <si>
+    <t>The larger procedure that this particular observation is a component or step.</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
@@ -960,7 +963,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1204,7 +1207,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1503,7 +1506,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3092,10 +3095,10 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3160,16 +3163,16 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3180,7 +3183,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3206,16 +3209,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3240,13 +3243,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3264,7 +3267,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>55</v>
@@ -3279,19 +3282,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3322,19 +3325,19 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3359,13 +3362,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3383,7 +3386,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3407,10 +3410,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3418,11 +3421,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3441,19 +3444,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3478,13 +3481,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3502,7 +3505,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3517,27 +3520,27 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3560,19 +3563,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3621,7 +3624,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3636,19 +3639,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3656,7 +3659,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3679,16 +3682,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3738,7 +3741,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3759,13 +3762,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3773,11 +3776,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3796,19 +3799,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3857,7 +3860,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3872,19 +3875,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3892,11 +3895,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3915,19 +3918,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3976,7 +3979,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3991,19 +3994,19 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4011,7 +4014,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4034,16 +4037,16 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4093,7 +4096,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4114,13 +4117,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4128,7 +4131,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4151,17 +4154,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4210,7 +4213,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4225,19 +4228,19 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4245,7 +4248,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4268,19 +4271,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4329,7 +4332,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4338,7 +4341,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>45</v>
@@ -4347,24 +4350,24 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4387,19 +4390,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4424,13 +4427,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4448,7 +4451,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4457,7 +4460,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>45</v>
@@ -4472,7 +4475,7 @@
         <v>97</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4483,11 +4486,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4506,19 +4509,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4543,13 +4546,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4567,7 +4570,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4585,24 +4588,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4625,19 +4628,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4686,7 +4689,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4707,10 +4710,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4744,16 +4747,16 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4783,7 +4786,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4801,7 +4804,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4819,24 +4822,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4859,19 +4862,19 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4896,11 +4899,11 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4918,7 +4921,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4939,10 +4942,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -4953,7 +4956,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4976,16 +4979,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5035,7 +5038,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5053,24 +5056,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5093,16 +5096,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5152,7 +5155,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5170,24 +5173,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5210,19 +5213,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5271,7 +5274,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5283,7 +5286,7 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5292,10 +5295,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5329,13 +5332,13 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5386,7 +5389,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5410,7 +5413,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5421,7 +5424,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5450,7 +5453,7 @@
         <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>103</v>
@@ -5503,7 +5506,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5527,7 +5530,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5538,11 +5541,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5564,10 +5567,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>103</v>
@@ -5622,7 +5625,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5657,7 +5660,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5680,13 +5683,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5737,7 +5740,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5746,7 +5749,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>45</v>
@@ -5758,10 +5761,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5795,13 +5798,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5852,7 +5855,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5861,7 +5864,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>45</v>
@@ -5873,10 +5876,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5887,7 +5890,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5910,19 +5913,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5947,13 +5950,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5971,7 +5974,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5989,13 +5992,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6006,7 +6009,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6029,19 +6032,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6066,13 +6069,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6090,7 +6093,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6108,13 +6111,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6125,7 +6128,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6148,17 +6151,17 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6207,7 +6210,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6231,7 +6234,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6242,7 +6245,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6265,13 +6268,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6322,7 +6325,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6343,10 +6346,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6357,7 +6360,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6380,16 +6383,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6439,7 +6442,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6460,10 +6463,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6474,7 +6477,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6497,16 +6500,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6556,7 +6559,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6577,10 +6580,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6614,19 +6617,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6675,7 +6678,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6687,7 +6690,7 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6696,10 +6699,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6710,7 +6713,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6733,13 +6736,13 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6790,7 +6793,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6814,7 +6817,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6825,7 +6828,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6854,7 +6857,7 @@
         <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>103</v>
@@ -6907,7 +6910,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6931,7 +6934,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6942,11 +6945,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6968,10 +6971,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>103</v>
@@ -7026,7 +7029,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7061,7 +7064,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7084,19 +7087,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7121,13 +7124,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7145,7 +7148,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>55</v>
@@ -7163,16 +7166,16 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7180,7 +7183,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7203,19 +7206,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7264,7 +7267,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7282,24 +7285,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7322,19 +7325,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7359,13 +7362,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7383,7 +7386,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7392,7 +7395,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>45</v>
@@ -7407,7 +7410,7 @@
         <v>97</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7418,11 +7421,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7441,19 +7444,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7478,13 +7481,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7502,7 +7505,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7520,24 +7523,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7560,19 +7563,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7621,7 +7624,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7642,10 +7645,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7656,7 +7659,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7679,13 +7682,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7736,7 +7739,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7760,7 +7763,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7771,7 +7774,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7800,7 +7803,7 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>103</v>
@@ -7853,7 +7856,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7877,7 +7880,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7888,11 +7891,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7914,10 +7917,10 @@
         <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>103</v>
@@ -7972,7 +7975,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8007,7 +8010,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8030,13 +8033,13 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8087,7 +8090,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8096,7 +8099,7 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>45</v>
@@ -8108,10 +8111,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8122,7 +8125,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8145,13 +8148,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8202,7 +8205,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8211,7 +8214,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
@@ -8223,10 +8226,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8237,7 +8240,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8260,19 +8263,19 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8297,13 +8300,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8321,7 +8324,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8339,13 +8342,13 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8356,7 +8359,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8379,19 +8382,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8416,13 +8419,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8440,7 +8443,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8458,13 +8461,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8475,7 +8478,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8498,17 +8501,17 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8557,7 +8560,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8581,7 +8584,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8592,7 +8595,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8615,13 +8618,13 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8672,7 +8675,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8693,10 +8696,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>

--- a/docs/mcode-r4/onco-core-CancerStageCategory.xlsx
+++ b/docs/mcode-r4/onco-core-CancerStageCategory.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -341,24 +341,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>primarycancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition-extension}
-</t>
-  </si>
-  <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -616,7 +599,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
 </t>
   </si>
   <si>
@@ -1487,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1497,7 +1480,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2553,17 +2536,19 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2598,39 +2583,43 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2678,7 +2667,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2702,7 +2691,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2717,7 +2706,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2730,25 +2719,23 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2797,7 +2784,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2812,19 +2799,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2832,11 +2819,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2855,17 +2842,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2914,7 +2901,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2929,19 +2916,19 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2949,11 +2936,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2972,18 +2959,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3031,7 +3018,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3046,16 +3033,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3066,41 +3053,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3124,13 +3113,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3148,13 +3137,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3163,19 +3152,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3183,7 +3172,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3191,7 +3180,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
@@ -3200,25 +3189,25 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3243,13 +3232,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3267,13 +3256,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3282,19 +3271,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3302,15 +3291,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>55</v>
@@ -3322,22 +3311,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3362,37 +3351,37 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3401,31 +3390,31 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3444,19 +3433,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3481,13 +3470,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3505,10 +3494,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3520,27 +3509,27 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3548,10 +3537,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3563,20 +3552,18 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3624,13 +3611,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3639,19 +3626,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3659,18 +3646,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3682,18 +3669,20 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3741,13 +3730,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3756,19 +3745,19 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3776,11 +3765,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3799,19 +3788,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3860,7 +3849,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3875,19 +3864,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3895,11 +3884,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3918,20 +3907,18 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3979,7 +3966,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3994,19 +3981,19 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4014,7 +4001,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4025,7 +4012,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4037,18 +4024,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4096,13 +4083,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4111,19 +4098,19 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4131,7 +4118,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4139,10 +4126,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4154,17 +4141,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4213,42 +4202,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4256,10 +4245,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4268,22 +4257,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4308,13 +4297,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4332,7 +4321,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4341,7 +4330,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>45</v>
@@ -4350,35 +4339,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4390,19 +4379,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4427,13 +4416,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4451,16 +4440,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>45</v>
@@ -4469,35 +4458,35 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4509,19 +4498,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4546,31 +4535,31 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4588,24 +4577,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4616,7 +4605,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4628,20 +4617,18 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4665,13 +4652,11 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4689,13 +4674,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4707,24 +4692,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4735,7 +4720,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4747,18 +4732,20 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4782,29 +4769,29 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4822,24 +4809,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4850,7 +4837,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -4862,20 +4849,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4899,11 +4884,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4921,7 +4908,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4939,24 +4926,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4979,16 +4966,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5038,7 +5025,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5056,24 +5043,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5096,18 +5083,20 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5155,42 +5144,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5201,7 +5190,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5213,20 +5202,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5274,19 +5259,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5295,10 +5280,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5309,18 +5294,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5332,15 +5317,17 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5389,13 +5376,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5413,7 +5400,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5424,11 +5411,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5441,16 +5428,16 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>327</v>
@@ -5458,7 +5445,9 @@
       <c r="M34" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5530,7 +5519,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5545,26 +5534,26 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>331</v>
@@ -5572,12 +5561,8 @@
       <c r="L35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5625,17 +5610,17 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5646,10 +5631,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5660,7 +5645,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5683,13 +5668,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5740,7 +5725,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5749,7 +5734,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>45</v>
@@ -5761,10 +5746,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5775,7 +5760,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5798,16 +5783,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5831,13 +5820,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5855,7 +5844,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5864,7 +5853,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>45</v>
@@ -5873,13 +5862,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5890,7 +5879,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5901,7 +5890,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5913,19 +5902,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5950,13 +5939,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5974,13 +5963,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5992,13 +5981,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6009,7 +5998,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6020,7 +6009,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6032,19 +6021,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6069,13 +6056,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6093,13 +6080,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6111,13 +6098,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6128,7 +6115,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6151,7 +6138,7 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>363</v>
@@ -6160,9 +6147,7 @@
         <v>364</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6210,7 +6195,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6231,10 +6216,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6245,7 +6230,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6256,7 +6241,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6265,10 +6250,10 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>368</v>
@@ -6276,7 +6261,9 @@
       <c r="L41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6325,13 +6312,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6346,10 +6333,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6360,7 +6347,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6371,7 +6358,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6383,16 +6370,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6442,7 +6429,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6463,10 +6450,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6477,7 +6464,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6488,7 +6475,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6500,7 +6487,7 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>380</v>
@@ -6511,7 +6498,9 @@
       <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6559,7 +6548,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6571,7 +6560,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6580,10 +6569,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6594,7 +6583,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6605,7 +6594,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6614,23 +6603,19 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6678,19 +6663,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6699,10 +6684,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6713,18 +6698,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6736,15 +6721,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6793,13 +6780,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -6817,7 +6804,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6828,11 +6815,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6845,16 +6832,16 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>327</v>
@@ -6862,7 +6849,9 @@
       <c r="M46" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6934,7 +6923,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6945,42 +6934,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>103</v>
+        <v>393</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7005,13 +6994,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7029,13 +7018,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7047,16 +7036,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7072,7 +7061,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7087,19 +7076,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>156</v>
+        <v>396</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>398</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7124,13 +7113,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7151,7 +7140,7 @@
         <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7169,16 +7158,16 @@
         <v>399</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7203,22 +7192,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>403</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7243,13 +7232,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7276,7 +7265,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>45</v>
@@ -7285,35 +7274,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7325,19 +7314,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>406</v>
+        <v>253</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>254</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>408</v>
+        <v>255</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7362,13 +7351,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7386,16 +7375,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>45</v>
@@ -7404,28 +7393,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7444,19 +7433,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>259</v>
+        <v>407</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7481,13 +7470,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7505,7 +7494,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7523,24 +7512,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7551,7 +7540,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7563,20 +7552,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7624,13 +7609,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7645,10 +7630,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7659,18 +7644,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7682,15 +7667,17 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7739,13 +7726,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7763,7 +7750,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7774,11 +7761,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7791,16 +7778,16 @@
         <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>327</v>
@@ -7808,7 +7795,9 @@
       <c r="M54" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7880,7 +7869,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7891,30 +7880,30 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>331</v>
@@ -7922,12 +7911,8 @@
       <c r="L55" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7975,17 +7960,17 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH55" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7996,10 +7981,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8010,7 +7995,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8033,13 +8018,13 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8090,7 +8075,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8099,7 +8084,7 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>45</v>
@@ -8111,10 +8096,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8125,7 +8110,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8148,16 +8133,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8181,13 +8170,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8205,7 +8194,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8214,7 +8203,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
@@ -8223,13 +8212,13 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8240,7 +8229,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8251,7 +8240,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8263,19 +8252,19 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8300,13 +8289,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8324,13 +8313,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8342,13 +8331,13 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8359,7 +8348,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8370,7 +8359,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8382,19 +8371,17 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8419,13 +8406,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8443,13 +8430,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8461,13 +8448,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8478,7 +8465,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8501,7 +8488,7 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>363</v>
@@ -8510,9 +8497,7 @@
         <v>364</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8560,7 +8545,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8581,135 +8566,20 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO61" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO61">
+  <autoFilter ref="A1:AO60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8719,7 +8589,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
